--- a/legislator/property/output/normal/楊瓊瓔_2013-12-25_財產申報表_tmp68d11.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2013-12-25_財產申報表_tmp68d11.xlsx
@@ -18,9 +18,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="74">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="89">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區南簡段10330001地號</t>
+  </si>
+  <si>
+    <t>臺中市梧樓區南簡段10320000地號</t>
+  </si>
+  <si>
+    <t>臺中市清水區康榔段08280038地號</t>
+  </si>
+  <si>
+    <t>臺中市清水區康榔段08260043地號</t>
+  </si>
+  <si>
+    <t>臺中市清水區康榔段08260023地號</t>
+  </si>
+  <si>
+    <t>臺中市清水區康榔段08240021地號</t>
+  </si>
+  <si>
+    <t>臺中市清水區康鄉段08210073地號</t>
+  </si>
+  <si>
+    <t>臺中市清水區康榔段08270054地號</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區梧棲段02010000地號</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區大庄段大庄小段00140041地號</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區大庄段大庄小段00140054地號</t>
+  </si>
+  <si>
+    <t>臺中市大雅區永興段08400007地號</t>
+  </si>
+  <si>
+    <t>臺中市大雅區大明段08050000地號</t>
+  </si>
+  <si>
+    <t>3分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>楊瓊瓔</t>
+  </si>
+  <si>
+    <t>楊瓊瓔‘</t>
+  </si>
+  <si>
+    <t>76年10月30日</t>
+  </si>
+  <si>
+    <t>76年09月10日</t>
+  </si>
+  <si>
+    <t>78年05月01日</t>
+  </si>
+  <si>
+    <t>78年05月01曰</t>
+  </si>
+  <si>
+    <t>74年03月20日</t>
+  </si>
+  <si>
+    <t>88年10月21日</t>
+  </si>
+  <si>
+    <t>94年02月23日</t>
+  </si>
+  <si>
+    <t>94年08月24日</t>
+  </si>
+  <si>
+    <t>96年03月</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超過五年)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-25</t>
+  </si>
+  <si>
+    <t>tmp68d11</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -38,127 +182,28 @@
     <t>登記（取得）原因</t>
   </si>
   <si>
-    <t>取得慣額</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區南簡段1033-0001 地號</t>
-  </si>
-  <si>
-    <t>臺中市梧樓區南簡段1032-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市清水區康榔段0828-0038 地號</t>
-  </si>
-  <si>
-    <t>臺中市清水區康榔段0826-0043 地號</t>
-  </si>
-  <si>
-    <t>臺中市清水區康榔段0826-0023 地號</t>
-  </si>
-  <si>
-    <t>臺中市清水區康榔段0824-0021 地號</t>
-  </si>
-  <si>
-    <t>臺中市清水區康鄉段0821-0073 地號</t>
-  </si>
-  <si>
-    <t>臺中市清水區康榔段0827-0054 地號</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區梧棲段0201-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區大庄段大庄小段 0014-0041 地號</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區大庄段大庄小段 0014-0054 地號</t>
-  </si>
-  <si>
-    <t>臺中市大雅區永興段0840-0007 地號</t>
-  </si>
-  <si>
-    <t>臺中市大雅區大明段0805-0000 地號</t>
-  </si>
-  <si>
-    <t>3分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>楊瓊瓔</t>
-  </si>
-  <si>
-    <t>楊瓊瓔 ‘</t>
-  </si>
-  <si>
-    <t>76年10月 30日</t>
-  </si>
-  <si>
-    <t>76年09月 10日</t>
-  </si>
-  <si>
-    <t>78年05月 01日</t>
-  </si>
-  <si>
-    <t>78年05月 01曰</t>
-  </si>
-  <si>
-    <t>74年03月 20日</t>
-  </si>
-  <si>
-    <t>88年10月 21日</t>
-  </si>
-  <si>
-    <t>94年02月 23日</t>
-  </si>
-  <si>
-    <t>94年08月 24日</t>
-  </si>
-  <si>
-    <t>96年03月</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超過五年)</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>登記（取'得）原因</t>
-  </si>
-  <si>
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺中市清水區康榔段00003-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市清水區康榔段00104-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市大雅區永興段00676-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市大雅區大明段00138-000 建號</t>
-  </si>
-  <si>
-    <t>74年03月 19日</t>
-  </si>
-  <si>
-    <t>96年03月 19日</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
+    <t>臺中市清水區康榔段00003000建號</t>
+  </si>
+  <si>
+    <t>臺中市清水區康榔段00104000建號</t>
+  </si>
+  <si>
+    <t>臺中市大雅區永興段00676000建號</t>
+  </si>
+  <si>
+    <t>臺中市大雅區大明段00138000建號</t>
+  </si>
+  <si>
+    <t>74年03月19日</t>
+  </si>
+  <si>
+    <t>96年03月19日</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -170,10 +215,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>BENZ S350</t>
-  </si>
-  <si>
-    <t>100 年 02 月25曰</t>
+    <t>BENZS350</t>
+  </si>
+  <si>
+    <t>100年02月25曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -215,13 +260,13 @@
     <t>人民幣</t>
   </si>
   <si>
-    <t>楊_</t>
-  </si>
-  <si>
-    <t>1,000，000</t>
-  </si>
-  <si>
-    <t>4，000，000</t>
+    <t>楊</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>4000000</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -598,13 +643,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,343 +671,637 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>743</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>854</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>854</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>854</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>854</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>854</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>854</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>854</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>854</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="2">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>740</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>854</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="2">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>1552</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>854</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="2">
         <v>22</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>635</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="2">
+        <v>854</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="2">
         <v>23</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>65.9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="2">
+        <v>854</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>196.18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H14" s="2">
         <v>3295824</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="2">
+        <v>854</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -980,25 +1319,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1006,25 +1345,25 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <v>354.75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1032,25 +1371,25 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2">
         <v>294.69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1058,25 +1397,25 @@
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2">
         <v>189.57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1084,22 +1423,22 @@
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2">
         <v>754.92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2">
         <v>1665100</v>
@@ -1120,22 +1459,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1143,19 +1482,19 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2">
         <v>3498</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
         <v>4720100</v>
@@ -1176,22 +1515,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1199,16 +1538,16 @@
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1220,16 +1559,16 @@
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1241,16 +1580,16 @@
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1262,16 +1601,16 @@
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1283,20 +1622,20 @@
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1304,20 +1643,20 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1325,16 +1664,16 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2">
         <v>7717.44</v>
@@ -1348,16 +1687,16 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
         <v>100000</v>
@@ -1371,16 +1710,16 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2">
         <v>100000</v>
@@ -1394,16 +1733,16 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2">
         <v>100000</v>
@@ -1417,16 +1756,16 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2">
         <v>100000</v>
@@ -1440,16 +1779,16 @@
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2">
         <v>100000</v>
@@ -1473,13 +1812,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1487,13 +1826,13 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1501,13 +1840,13 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊瓊瓔_2013-12-25_財產申報表_tmp68d11.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2013-12-25_財產申報表_tmp68d11.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺中市梧棲區南簡段10330001地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺中市梧樓區南簡段10320000地號</t>
@@ -110,15 +113,12 @@
     <t>2分之1</t>
   </si>
   <si>
+    <t>楊瓊瓔‘</t>
+  </si>
+  <si>
     <t>楊瓊瓔</t>
   </si>
   <si>
-    <t>楊瓊瓔‘</t>
-  </si>
-  <si>
-    <t>76年10月30日</t>
-  </si>
-  <si>
     <t>76年09月10日</t>
   </si>
   <si>
@@ -164,27 +164,6 @@
     <t>tmp68d11</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺中市清水區康榔段00003000建號</t>
   </si>
   <si>
@@ -206,45 +185,24 @@
     <t>第一次登記</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>BENZS350</t>
   </si>
   <si>
     <t>100年02月25曰</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>台中商業銀行台中港分行</t>
   </si>
   <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣銀行台中港分行</t>
   </si>
   <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
@@ -254,9 +212,6 @@
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>人民幣</t>
   </si>
   <si>
@@ -267,15 +222,6 @@
   </si>
   <si>
     <t>4000000</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
   </si>
   <si>
     <t>中華郵政</t>
@@ -643,13 +589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,25 +638,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>743</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>41</v>
@@ -728,7 +680,7 @@
         <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2">
         <v>854</v>
@@ -737,27 +689,33 @@
         <v>47</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>11.6666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>41</v>
@@ -775,7 +733,7 @@
         <v>46</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2">
         <v>854</v>
@@ -784,24 +742,30 @@
         <v>47</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>34</v>
@@ -822,7 +786,7 @@
         <v>46</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2">
         <v>854</v>
@@ -831,27 +795,33 @@
         <v>47</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.66666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>41</v>
@@ -869,7 +839,7 @@
         <v>46</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M5" s="2">
         <v>854</v>
@@ -878,27 +848,33 @@
         <v>47</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>41</v>
@@ -916,7 +892,7 @@
         <v>46</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2">
         <v>854</v>
@@ -925,24 +901,30 @@
         <v>47</v>
       </c>
       <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>8.66666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>36</v>
@@ -951,7 +933,7 @@
         <v>41</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>44</v>
@@ -963,7 +945,7 @@
         <v>46</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M7" s="2">
         <v>854</v>
@@ -972,33 +954,39 @@
         <v>47</v>
       </c>
       <c r="O7" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>44</v>
@@ -1010,7 +998,7 @@
         <v>46</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M8" s="2">
         <v>854</v>
@@ -1019,27 +1007,33 @@
         <v>47</v>
       </c>
       <c r="O8" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2.33333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>7</v>
+        <v>740</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>41</v>
@@ -1057,7 +1051,7 @@
         <v>46</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2">
         <v>854</v>
@@ -1066,27 +1060,33 @@
         <v>47</v>
       </c>
       <c r="O9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>740</v>
+        <v>1552</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>41</v>
@@ -1104,7 +1104,7 @@
         <v>46</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M10" s="2">
         <v>854</v>
@@ -1113,24 +1113,30 @@
         <v>47</v>
       </c>
       <c r="O10" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>1552</v>
+        <v>635</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>38</v>
@@ -1139,7 +1145,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>44</v>
@@ -1151,7 +1157,7 @@
         <v>46</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M11" s="2">
         <v>854</v>
@@ -1160,33 +1166,39 @@
         <v>47</v>
       </c>
       <c r="O11" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>317.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>635</v>
+        <v>65.9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>44</v>
@@ -1198,7 +1210,7 @@
         <v>46</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M12" s="2">
         <v>854</v>
@@ -1207,33 +1219,39 @@
         <v>47</v>
       </c>
       <c r="O12" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>65.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>65.9</v>
+        <v>196.18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>42</v>
+      <c r="H13" s="2">
+        <v>3295824</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>44</v>
@@ -1245,7 +1263,7 @@
         <v>46</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M13" s="2">
         <v>854</v>
@@ -1254,54 +1272,13 @@
         <v>47</v>
       </c>
       <c r="O13" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2">
-        <v>196.18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="2">
-        <v>3295824</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="2">
-        <v>854</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="2">
-        <v>25</v>
+      <c r="P13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>98.09</v>
       </c>
     </row>
   </sheetData>
@@ -1311,7 +1288,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1321,46 +1298,46 @@
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
+      <c r="C1" s="1">
+        <v>354.75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
-        <v>354.75</v>
+        <v>294.69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>42</v>
@@ -1368,25 +1345,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
-        <v>294.69</v>
+        <v>189.57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>42</v>
@@ -1394,53 +1371,27 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2">
-        <v>189.57</v>
+        <v>754.92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="2">
-        <v>754.92</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="H4" s="2">
         <v>1665100</v>
       </c>
     </row>
@@ -1451,7 +1402,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3498</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1">
+        <v>4720100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1459,244 +1443,188 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>2000000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3498</v>
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4720100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>60</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>1000000</v>
+        <v>432307</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>432307</v>
+        <v>272042</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>272042</v>
+      <c r="G5" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7717.44</v>
+      </c>
+      <c r="G7" s="2">
+        <v>37908.06</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2">
-        <v>7717.44</v>
+        <v>100000</v>
       </c>
       <c r="G8" s="2">
-        <v>37908.06</v>
+        <v>491200</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2">
         <v>100000</v>
@@ -1707,19 +1635,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2">
         <v>100000</v>
@@ -1730,19 +1658,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2">
         <v>100000</v>
@@ -1753,47 +1681,24 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2">
         <v>100000</v>
       </c>
       <c r="G12" s="2">
-        <v>491200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>72</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="2">
-        <v>100000</v>
-      </c>
-      <c r="G13" s="2">
         <v>491200</v>
       </c>
     </row>
@@ -1804,7 +1709,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1812,41 +1717,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>105</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊瓊瓔_2013-12-25_財產申報表_tmp68d11.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2013-12-25_財產申報表_tmp68d11.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺中市梧棲區南簡段10330001地號</t>
+  </si>
+  <si>
     <t>臺中市梧樓區南簡段10320000地號</t>
   </si>
   <si>
@@ -113,10 +116,13 @@
     <t>2分之1</t>
   </si>
   <si>
+    <t>楊瓊瓔</t>
+  </si>
+  <si>
     <t>楊瓊瓔‘</t>
   </si>
   <si>
-    <t>楊瓊瓔</t>
+    <t>76年10月30日</t>
   </si>
   <si>
     <t>76年09月10日</t>
@@ -589,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,37 +653,37 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>35</v>
+        <v>743</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>32</v>
@@ -686,51 +692,51 @@
         <v>854</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q2" s="2">
-        <v>11.6666666666667</v>
+        <v>247.666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>32</v>
@@ -739,51 +745,51 @@
         <v>854</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.666666666666667</v>
+        <v>11.6666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>32</v>
@@ -792,51 +798,51 @@
         <v>854</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.66666666666667</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>32</v>
@@ -845,51 +851,51 @@
         <v>854</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q5" s="2">
-        <v>24</v>
+        <v>2.66666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>32</v>
@@ -898,51 +904,51 @@
         <v>854</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q6" s="2">
-        <v>8.66666666666667</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>32</v>
@@ -951,51 +957,51 @@
         <v>854</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q7" s="2">
-        <v>22</v>
+        <v>8.66666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>32</v>
@@ -1004,27 +1010,27 @@
         <v>854</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q8" s="2">
-        <v>2.33333333333333</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>740</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
@@ -1033,22 +1039,22 @@
         <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>32</v>
@@ -1057,27 +1063,27 @@
         <v>854</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q9" s="2">
-        <v>740</v>
+        <v>2.33333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>1552</v>
+        <v>740</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
@@ -1086,22 +1092,22 @@
         <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>32</v>
@@ -1110,51 +1116,51 @@
         <v>854</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>635</v>
+        <v>1552</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>32</v>
@@ -1163,51 +1169,51 @@
         <v>854</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="2">
         <v>0.5</v>
       </c>
       <c r="Q11" s="2">
-        <v>317.5</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>65.9</v>
+        <v>635</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>32</v>
@@ -1216,27 +1222,27 @@
         <v>854</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q12" s="2">
-        <v>65.9</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>196.18</v>
+        <v>65.9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>30</v>
@@ -1245,22 +1251,22 @@
         <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="2">
-        <v>3295824</v>
+        <v>43</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>32</v>
@@ -1269,15 +1275,68 @@
         <v>854</v>
       </c>
       <c r="N13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="2">
+        <v>24</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>65.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>196.18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3295824</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="2">
+      <c r="K14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="2">
+        <v>854</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="2">
         <v>25</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P14" s="2">
         <v>0.5</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q14" s="2">
         <v>98.09</v>
       </c>
     </row>
@@ -1288,70 +1347,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2">
+        <v>354.75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1">
-        <v>354.75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>854</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="2">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>118.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2">
         <v>294.69</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="2">
-        <v>189.57</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -1360,24 +1473,51 @@
         <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>854</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="2">
+        <v>33</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>98.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2">
-        <v>754.92</v>
+        <v>189.57</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
@@ -1386,13 +1526,93 @@
         <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>854</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="2">
+        <v>34</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>189.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="C5" s="2">
+        <v>754.92</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2">
         <v>1665100</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>854</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="2">
+        <v>35</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>377.46</v>
       </c>
     </row>
   </sheetData>
@@ -1402,40 +1622,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1">
-        <v>3498</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1">
-        <v>4720100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1445,11 +1632,67 @@
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C1" s="1">
+        <v>3498</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1">
+        <v>4720100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3498</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4720100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1461,167 +1704,165 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>432307</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>272042</v>
+        <v>432307</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>66</v>
+      <c r="G5" s="2">
+        <v>272042</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="2">
-        <v>7717.44</v>
-      </c>
-      <c r="G7" s="2">
-        <v>37908.06</v>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="2">
-        <v>100000</v>
+        <v>7717.44</v>
       </c>
       <c r="G8" s="2">
-        <v>491200</v>
+        <v>37908.06</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -1635,16 +1876,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -1658,16 +1899,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -1681,16 +1922,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -1699,6 +1940,29 @@
         <v>100000</v>
       </c>
       <c r="G12" s="2">
+        <v>491200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G13" s="2">
         <v>491200</v>
       </c>
     </row>
@@ -1709,7 +1973,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1717,10 +1981,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1728,15 +1992,29 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>104</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>105</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/legislator/property/output/normal/楊瓊瓔_2013-12-25_財產申報表_tmp68d11.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2013-12-25_財產申報表_tmp68d11.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>第一次登記</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>BENZS350</t>
@@ -1622,38 +1625,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1">
-        <v>3498</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1">
-        <v>4720100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>3498</v>
@@ -1662,13 +1686,34 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="2">
         <v>4720100</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2">
+        <v>854</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1686,13 +1731,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1707,13 +1752,13 @@
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1728,13 +1773,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1749,13 +1794,13 @@
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -1770,16 +1815,16 @@
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1791,20 +1836,20 @@
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1812,20 +1857,20 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1833,13 +1878,13 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -1856,13 +1901,13 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -1879,13 +1924,13 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -1902,13 +1947,13 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -1925,13 +1970,13 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -1948,13 +1993,13 @@
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -1981,10 +2026,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1995,10 +2040,10 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -2009,10 +2054,10 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>32</v>

--- a/legislator/property/output/normal/楊瓊瓔_2013-12-25_財產申報表_tmp68d11.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2013-12-25_財產申報表_tmp68d11.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -191,6 +191,9 @@
     <t>第一次登記</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -198,6 +201,9 @@
   </si>
   <si>
     <t>100年02月25曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台中商業銀行台中港分行</t>
@@ -1432,7 +1438,7 @@
         <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>47</v>
@@ -1485,7 +1491,7 @@
         <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>47</v>
@@ -1538,7 +1544,7 @@
         <v>44</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>47</v>
@@ -1591,7 +1597,7 @@
         <v>1665100</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>47</v>
@@ -1636,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1677,7 +1683,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>3498</v>
@@ -1686,7 +1692,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>43</v>
@@ -1695,7 +1701,7 @@
         <v>4720100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>47</v>
@@ -1731,13 +1737,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1752,13 +1758,13 @@
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1773,13 +1779,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1794,13 +1800,13 @@
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -1815,16 +1821,16 @@
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1836,20 +1842,20 @@
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1857,20 +1863,20 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1878,13 +1884,13 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -1901,13 +1907,13 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -1924,13 +1930,13 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -1947,13 +1953,13 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -1970,13 +1976,13 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -1993,13 +1999,13 @@
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -2026,10 +2032,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -2040,10 +2046,10 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -2054,10 +2060,10 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>32</v>

--- a/legislator/property/output/normal/楊瓊瓔_2013-12-25_財產申報表_tmp68d11.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2013-12-25_財產申報表_tmp68d11.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -206,37 +206,43 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台中商業銀行台中港分行</t>
   </si>
   <si>
+    <t>臺灣銀行台中港分行</t>
+  </si>
+  <si>
     <t>定期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行台中港分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>人民幣</t>
   </si>
   <si>
     <t>楊</t>
   </si>
   <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>4000000</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>中華郵政</t>
@@ -1729,13 +1735,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1746,275 +1752,523 @@
         <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>854</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <v>854</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>432307</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2">
+        <v>854</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+        <v>73</v>
+      </c>
+      <c r="F5" s="2">
         <v>272042</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2">
+        <v>854</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2">
+        <v>854</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="2">
         <v>64</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>4000000</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>74</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2">
+        <v>854</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="2">
-        <v>7717.44</v>
-      </c>
-      <c r="G8" s="2">
         <v>37908.06</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2">
+        <v>854</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>491200</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2">
+        <v>854</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="2">
         <v>68</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2">
-        <v>100000</v>
-      </c>
-      <c r="G9" s="2">
-        <v>491200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>491200</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2">
+        <v>854</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="2">
         <v>69</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="2">
-        <v>100000</v>
-      </c>
-      <c r="G10" s="2">
-        <v>491200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="2">
-        <v>100000</v>
-      </c>
-      <c r="G11" s="2">
         <v>491200</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2">
+        <v>854</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="2">
-        <v>100000</v>
-      </c>
-      <c r="G12" s="2">
         <v>491200</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="2">
+        <v>854</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="2">
-        <v>100000</v>
-      </c>
-      <c r="G13" s="2">
         <v>491200</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="2">
+        <v>854</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2032,10 +2286,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -2046,10 +2300,10 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -2060,10 +2314,10 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>32</v>

--- a/legislator/property/output/normal/楊瓊瓔_2013-12-25_財產申報表_tmp68d11.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2013-12-25_財產申報表_tmp68d11.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -245,6 +245,9 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>中華郵政</t>
   </si>
   <si>
@@ -252,6 +255,9 @@
   </si>
   <si>
     <t>吉利保險</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2278,49 +2284,112 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2">
+        <v>854</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2">
+        <v>854</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
